--- a/데이터_분석/pandas/통계_정리1.xlsx
+++ b/데이터_분석/pandas/통계_정리1.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\data_study\데이터_분석\pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E619E735-B69E-41C7-BABC-A5CDF1D3B184}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C07D723-F7A6-41D5-8F1A-01BE204E8521}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5820" xr2:uid="{101E6221-B225-4A1F-8169-3483B06C0C79}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="정리" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">정리!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>변수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,15 +57,6 @@
   <si>
     <t>범주(독립)
 숫자(종속)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신뢰구간 구하기 
-n=len(v)-1          #자유도
-mn=np.mean(v)   #표준편차
-sm=stats.sem(v)    #표준오차
-stats.t.interval(0.95, n, mn, sm)
---&gt; 95%  신뢰구간 -1.96~1.96</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -92,59 +87,6 @@
 sns.histplot(V_2, kde=True)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">&lt;정규분포(정규성) 검정&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stats.shapire</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(df.v)  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stats.anderson</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(df.v)
-귀무가설: 정규분포이다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sns.barplot(x=V, y=v, data=df)  
    # V 범주들 모두 그래프에 표시됨</t>
   </si>
@@ -267,233 +209,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">&lt;단일표본 T검정(one-sample T test)&gt;
-하나의 집단평균이 모평균과 동일한지 검정(신뢰구간)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stats.ttest_1samp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(V_1, df.1.mean())
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stats.ttest_1samp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(V_2, df.V.mean()) #귀무: 모평균과 동일
-&lt;정규성 검정&gt; --표준정규분포를 갖는지
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stats.shapiro</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(V_1)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stats.shapiro</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(V_2)  # 귀무: 등분산을 가진다
-&lt;등분산 검정&gt;  --같은 분산을 갖는지     #귀무: 갖는다
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stats.bartett</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(V_1,V_2)  # 표본크기 크고 정규성 가진 데이터   
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stats.levene</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(V_1,V_2)  # 정규분포에 영향 안받음(중앙값)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stats.fligner</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(V_1,V_2)  # 정규분포 안따르는 데이터/중앙값</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;독립표본 T검정&gt; 모집단이 서로 다를때 두 평균의 차이
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stats.ttest_ind</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(V_1,V_2, equal_var=False)
-귀무: 유의미한 평균 차이가 없다.
-      t통계량 결과 -2&gt; 또는 &gt;2이면 '차이가 크다'. 
-&lt;Mann-Whitney U test 검정&gt; 중앙값 차이
-표본수가 적을때 비모수적인 분석// 평균비교X, 순위합검정
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stats.mannwhitneyu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(V_1,V_2)
-귀무: 두 집단의 중앙값 차이가 없다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">&lt;F검정(ANOVA)&gt; 신뢰구간 검정
 여러 집단의 분산을 통한 집단의 차이가 있는지
 </t>
@@ -590,9 +305,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>&lt;로지스틱 회귀모형을 통한 검정&gt;  회귀계수 0인가
-import statsmodels.api as sm
+    <t>숫자
+1,2,3…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범주2(독립)
+숫자1(종속)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범주3(독립)
+숫자1(종속)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns.heatmap(df, vmin=-1, vmax=1, 
+               annot=True)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범주2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plt.scatter('v1', 'v2', data=df)
+sns.regplot(data=df, x='v1', y='v2')
+sns.relplot(data=df, x='v1', y='v2', hue='V')
+sns.lmplot(data=df, x='v1', y='v2')
+g=sns.FacetGrid(df, row=v1, col=v2, size= ) g.map(sns.scatterplot,'v3', ' v4 ')
+sns.pairplot(df)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상관계수: 
+데이터가 얼마나 직선으로 모여있는지
+수치화한 값
+(-1~1 : 양의 상관관계/ 음의 상관관계, 
+0에 가까우면 관련이 없음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 로지스틱 회귀모형: 모집단에 대한 가설 아님
+그러므로 범주(숫자), 독립(종속) 일때와 같은
+검정을 하고 결과를 뒤집어서 적용
+: A~B는 !B~!A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;로지스틱 회귀모형을 통한 검정&gt;  회귀계수 0인가
+import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>statsmodels.api</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as sm
 model=</t>
     </r>
     <r>
@@ -623,27 +412,519 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>숫자
-1,2,3…</t>
+    <r>
+      <t xml:space="preserve">&lt;단일표본 T검정(one-sample T test)&gt;
+하나의 집단평균이 모평균과 동일한지 검정(신뢰구간)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stats.ttest_1samp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(V_1, df.1.mean())
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stats.ttest_1samp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(V_2, df.V.mean()) #귀무: 모평균과 동일
+&lt;정규성 검정&gt; --표준정규분포를 갖는지
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stats.shapiro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(V_1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stats.shapiro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(V_2)  # 귀무: 정규분포을 가진다
+&lt;등분산 검정&gt;  --같은 분산을 갖는지     #귀무: 갖는다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stats.bartett</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(V_1,V_2)  # 표본크기 크고 정규성 가진 데이터   
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stats.levene</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(V_1,V_2)  # 정규분포에 영향 안받음(중앙값)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stats.fligner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(V_1,V_2)  # 정규분포 안따르는 데이터/중앙값</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;독립표본 T검정&gt; 모집단이 서로 다를때 두 평균의 차이
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stats.ttest_ind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(V_1,V_2, equal_var=False)
+귀무: 유의미한 평균 차이가 없다.
+      t통계량 결과 -2&gt; 또는 &gt;2이면 '차이가 크다'. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;신뢰구간 구하기&gt; 
+n=len(v)-1          #자유도
+mn=np.mean(v)   #표준편차
+sm=stats.sem(v)    #표준오차
+stats.t.interval(0.95, n, mn, sm)
+   : 95%  신뢰구간 -1.96~1.96
+==&gt;정규성 검정에서 정규성이 아닐때 
+&lt;Mann-Whitney U test 검정&gt; 중앙값 차이
+표본수가 적을때 비모수적인 분석
+ // 평균비교X, 순위합검정
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stats.mannwhitneyu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(V_1,V_2)
+귀무: 두 집단의 중앙값 차이가 없다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">표준분포가 아닐때(정규성 없을때)
+&lt;kruskal-walis test&gt;  비모수검정
+&lt;Welchis ANOVA&gt;  3개 집단 등분산 아닐때
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;정규분포(정규성) 검정&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stats.shapire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(df.v)        # 5000 미만
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stats.anderson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(df.v)     # 5000 이상
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stats.kstest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(df.v, 'nomal')
+귀무가설: 정규분포이다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;상관분석&gt; 상관계수를 통한 분석
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stats.pearson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(df.x1, df.x2) 
+종류 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spearman( ), kendalltau( )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+귀무: 상관계수는 0이다.
+통계량: 상관계수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상관계수: 
+데이터가 얼마나 직선으로 모여있는지
+수치화한 값
+(-1~1 : 양의 상관관계/ 음의 상관관계, 
+0에 가까우면 관련이 없음)
+# 정규분포 아닐 경우 비모수분석: spearman</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>범주2(독립)
+숫자1(종속)
+:종속변수 
+독립적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범주2(독립)
+숫자1(종속)
+:종속변수 기간의 변화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;비모수검정&gt; 집단 1, 두 기간에서의 변화
+stats.wilcoxon(V_1, V_2,  alternative='greater' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비모수검정: 독립적 집단 2, 기간1
+&lt;Mann-Whitney U test 검정&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Welchis ANOVA&gt;  3개 집단 등분산 아닐때
+pg.welch_anova(data=df,dv=v,between=v)
+비모수검정
+&lt;kruskal-walis test&gt;  : 집단1,두 기간
+stats.kruskal(V_1,V_2,V_3)
+&lt;Friedman test&gt; : 집단1, 3개 이상 기간
+stats.friedmanchisquare()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범주3 이상(독립)
 숫자1(종속)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>범주3(독립)
-숫자1(종속)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sns.heatmap(df, vmin=-1, vmax=1, 
-               annot=True)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>범주2</t>
+    <t xml:space="preserve">범주별 빈도수(value_counts)/ 범주별 비율
+sns.barplot(data=df, x='V') 
+sns.countplot(data=df, x='V') </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 통계, 시각화 추가
+p=df.V.value_counts()
+plt.pie(p.values, label=p.index, autopc='%.2f%%')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;대응표본 T검정&gt; 집단 1, 두 기간에서의 변화
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stats.ttest_rel(V_1,V_2, alternative='greater' )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ ==&gt;귀무:증가한다/ alternative='less' 귀무: 감소한다
+V_1(before), V_2(after)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(예) happy1 = happy['점수_2019'] 
+                     - happy['점수_2018']
+plt.bar(happy['나라명'], happy1.values)  
+# 증가,감소 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교차표
+cr=pd.crosstab(df.V1, df.V2)
+cr=pd.crosstab(df.V1, df.V2, normalize='index')
+    : normalize='index'  /'columns'/'all'
+/cr.plot.bar(stacked=True)
+sns.countplot(data=df, x=v, hue='X')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">카이제곱 검정: 예측값과 관측값의 차이 측정
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>①적합도(선호도) 검정: 변수1
+②독립성 검정: 하나의 모집단에 범주형 2개
+      :범주변수들 간 어떤 관계가 있는지
+③동질성 검정: 2개 이상 모집단 2개 이상</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -746,7 +1027,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,6 +1048,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1082,23 +1366,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8F047F-71F2-4FA6-B190-AE4A614EA7C1}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="37" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="46" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1112,109 +1396,299 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="122.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="205.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D6D046-7CD6-406A-BA7F-BDC9F07E6BF1}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="111" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="87" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="196.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="57" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" ht="70.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="209.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>